--- a/Emisiones GEI/13.4.xlsx
+++ b/Emisiones GEI/13.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Emisiones GEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E02317-C87C-475E-926B-1128CCD25AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40413D20-6D4A-4982-94F3-E974A43CFC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B97FA78D-8C85-4B86-943D-F300A6AB9705}"/>
   </bookViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:AM577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
